--- a/Hardware/doc/расчет.xlsx
+++ b/Hardware/doc/расчет.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A4:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -539,7 +539,7 @@
         <v>311.84999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>3</v>
       </c>
@@ -550,8 +550,12 @@
         <f>C16*4</f>
         <v>1247.3999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <f>C16*2</f>
+        <v>623.69999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>4</v>
       </c>
@@ -559,11 +563,15 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <f>C4/C17</f>
+        <f>$C$4/C17</f>
         <v>240333.86083052753</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <f>$C$4/D17</f>
+        <v>480667.72166105505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>5</v>
       </c>
@@ -573,6 +581,10 @@
       <c r="C19">
         <f>C18/1000</f>
         <v>240.33386083052753</v>
+      </c>
+      <c r="D19">
+        <f>D18/1000</f>
+        <v>480.66772166105505</v>
       </c>
     </row>
   </sheetData>
